--- a/OWS/Zadanie02/testy.xlsx
+++ b/OWS/Zadanie02/testy.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -621,7 +620,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F29"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
